--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ltb</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltb</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H2">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I2">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J2">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N2">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O2">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P2">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q2">
-        <v>11.58258068504425</v>
+        <v>53.4536678704725</v>
       </c>
       <c r="R2">
-        <v>46.33032274017701</v>
+        <v>213.81467148189</v>
       </c>
       <c r="S2">
-        <v>0.007159182364998965</v>
+        <v>0.001812164726564617</v>
       </c>
       <c r="T2">
-        <v>0.003585323538438701</v>
+        <v>0.0008718198909158306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H3">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I3">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J3">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P3">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q3">
-        <v>11.71285896784383</v>
+        <v>63.96622773580083</v>
       </c>
       <c r="R3">
-        <v>70.277153807063</v>
+        <v>383.797366414805</v>
       </c>
       <c r="S3">
-        <v>0.007239707250611497</v>
+        <v>0.002168557298539462</v>
       </c>
       <c r="T3">
-        <v>0.005438475686258027</v>
+        <v>0.001564916831022417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H4">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I4">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J4">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N4">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O4">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P4">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q4">
-        <v>10.969660942508</v>
+        <v>84.20058298818999</v>
       </c>
       <c r="R4">
-        <v>65.817965655048</v>
+        <v>505.20349792914</v>
       </c>
       <c r="S4">
-        <v>0.006780337241339162</v>
+        <v>0.002854534263525477</v>
       </c>
       <c r="T4">
-        <v>0.005093396453087002</v>
+        <v>0.002059944976657902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H5">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I5">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J5">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N5">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O5">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P5">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q5">
-        <v>5.29871222896625</v>
+        <v>39.23669986597626</v>
       </c>
       <c r="R5">
-        <v>21.194848915865</v>
+        <v>156.946799463905</v>
       </c>
       <c r="S5">
-        <v>0.003275129107954459</v>
+        <v>0.001330186801328967</v>
       </c>
       <c r="T5">
-        <v>0.001640186949222458</v>
+        <v>0.0006399436513868965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H6">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I6">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J6">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N6">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O6">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P6">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q6">
-        <v>7.145961775467502</v>
+        <v>146.3146200764642</v>
       </c>
       <c r="R6">
-        <v>42.87577065280501</v>
+        <v>877.887720458785</v>
       </c>
       <c r="S6">
-        <v>0.004416912337156594</v>
+        <v>0.004960299340463719</v>
       </c>
       <c r="T6">
-        <v>0.003317989184152481</v>
+        <v>0.003579548453725032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2359405</v>
+        <v>1.2885175</v>
       </c>
       <c r="H7">
-        <v>0.4718810000000001</v>
+        <v>2.577035</v>
       </c>
       <c r="I7">
-        <v>0.03579981219578292</v>
+        <v>0.01461811653543771</v>
       </c>
       <c r="J7">
-        <v>0.02428010125708996</v>
+        <v>0.009793130062458383</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N7">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O7">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P7">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q7">
-        <v>11.20943909338733</v>
+        <v>44.02076068394668</v>
       </c>
       <c r="R7">
-        <v>67.25663456032402</v>
+        <v>264.12456410368</v>
       </c>
       <c r="S7">
-        <v>0.006928543893722247</v>
+        <v>0.001492374105015471</v>
       </c>
       <c r="T7">
-        <v>0.005204729445931294</v>
+        <v>0.001076956258750304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H8">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I8">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J8">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N8">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O8">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P8">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q8">
-        <v>132.9526146017055</v>
+        <v>135.814736496339</v>
       </c>
       <c r="R8">
-        <v>797.715687610233</v>
+        <v>814.888418978034</v>
       </c>
       <c r="S8">
-        <v>0.08217788761584589</v>
+        <v>0.00460433651480609</v>
       </c>
       <c r="T8">
-        <v>0.06173211544003707</v>
+        <v>0.003322671581038707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,14 +962,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H9">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I9">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J9">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P9">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q9">
-        <v>134.448035941303</v>
+        <v>162.5249811791036</v>
       </c>
       <c r="R9">
-        <v>1210.032323471727</v>
+        <v>1462.724830611933</v>
       </c>
       <c r="S9">
-        <v>0.08310220615709407</v>
+        <v>0.00550985647593029</v>
       </c>
       <c r="T9">
-        <v>0.09363969674773477</v>
+        <v>0.00596419597133204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H10">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I10">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J10">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N10">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O10">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P10">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q10">
-        <v>125.917111502088</v>
+        <v>213.936301229876</v>
       </c>
       <c r="R10">
-        <v>1133.254003518792</v>
+        <v>1925.426711068884</v>
       </c>
       <c r="S10">
-        <v>0.07782924968365222</v>
+        <v>0.007252782349003972</v>
       </c>
       <c r="T10">
-        <v>0.08769812109084169</v>
+        <v>0.007850842477629882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H11">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I11">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J11">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N11">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O11">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P11">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q11">
-        <v>60.82216597659749</v>
+        <v>99.69235537206549</v>
       </c>
       <c r="R11">
-        <v>364.9329958595849</v>
+        <v>598.154132232393</v>
       </c>
       <c r="S11">
-        <v>0.03759412430624766</v>
+        <v>0.003379730093567567</v>
       </c>
       <c r="T11">
-        <v>0.0282407456418104</v>
+        <v>0.002438947087678534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H12">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I12">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J12">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N12">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O12">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P12">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q12">
-        <v>82.026132839205</v>
+        <v>371.7552482909023</v>
       </c>
       <c r="R12">
-        <v>738.235195552845</v>
+        <v>3345.79723461812</v>
       </c>
       <c r="S12">
-        <v>0.05070027653247946</v>
+        <v>0.01260309675101233</v>
       </c>
       <c r="T12">
-        <v>0.05712915142773728</v>
+        <v>0.01364234063029824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.708283</v>
+        <v>3.273857</v>
       </c>
       <c r="H13">
-        <v>8.124848999999999</v>
+        <v>9.821570999999999</v>
       </c>
       <c r="I13">
-        <v>0.4109342091460836</v>
+        <v>0.0371416167388945</v>
       </c>
       <c r="J13">
-        <v>0.4180548833679806</v>
+        <v>0.0373234830806215</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N13">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O13">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P13">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q13">
-        <v>128.669445627844</v>
+        <v>111.8476664154453</v>
       </c>
       <c r="R13">
-        <v>1158.025010650596</v>
+        <v>1006.628997739008</v>
       </c>
       <c r="S13">
-        <v>0.07953046485076434</v>
+        <v>0.003791814554574257</v>
       </c>
       <c r="T13">
-        <v>0.08961505301981945</v>
+        <v>0.004104485332644098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H14">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I14">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J14">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N14">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O14">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P14">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q14">
-        <v>4.94973374228375</v>
+        <v>3394.003028880024</v>
       </c>
       <c r="R14">
-        <v>19.798934969135</v>
+        <v>20364.01817328015</v>
       </c>
       <c r="S14">
-        <v>0.003059425829422812</v>
+        <v>0.1150621241875031</v>
       </c>
       <c r="T14">
-        <v>0.001532162596383105</v>
+        <v>0.08303338577933285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H15">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I15">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J15">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P15">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q15">
-        <v>5.005407242844166</v>
+        <v>4061.490620389458</v>
       </c>
       <c r="R15">
-        <v>30.032443457065</v>
+        <v>36553.41558350513</v>
       </c>
       <c r="S15">
-        <v>0.003093837568416743</v>
+        <v>0.1376910197701978</v>
       </c>
       <c r="T15">
-        <v>0.002324094029029273</v>
+        <v>0.1490449395532321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H16">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I16">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J16">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N16">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O16">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P16">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q16">
-        <v>4.68780683554</v>
+        <v>5346.256769280416</v>
       </c>
       <c r="R16">
-        <v>28.12684101324</v>
+        <v>48116.31092352374</v>
       </c>
       <c r="S16">
-        <v>0.002897529051608877</v>
+        <v>0.1812466444758048</v>
       </c>
       <c r="T16">
-        <v>0.002176626865136039</v>
+        <v>0.1961921352257238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H17">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I17">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J17">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N17">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O17">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P17">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q17">
-        <v>2.26436710639375</v>
+        <v>2491.306649172748</v>
       </c>
       <c r="R17">
-        <v>9.057468425574999</v>
+        <v>14947.83989503649</v>
       </c>
       <c r="S17">
-        <v>0.001399603205605982</v>
+        <v>0.08445927496737068</v>
       </c>
       <c r="T17">
-        <v>0.0007009222648198479</v>
+        <v>0.06094915777480594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H18">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I18">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J18">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N18">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O18">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P18">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q18">
-        <v>3.0537761042125</v>
+        <v>9290.143847795038</v>
       </c>
       <c r="R18">
-        <v>18.322656625275</v>
+        <v>83611.29463015535</v>
       </c>
       <c r="S18">
-        <v>0.001887536174055138</v>
+        <v>0.3149507163190415</v>
       </c>
       <c r="T18">
-        <v>0.00141791915531727</v>
+        <v>0.340921365491832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1008275</v>
+        <v>81.813512</v>
       </c>
       <c r="H19">
-        <v>0.201655</v>
+        <v>245.440536</v>
       </c>
       <c r="I19">
-        <v>0.01529879594291909</v>
+        <v>0.9281670234121243</v>
       </c>
       <c r="J19">
-        <v>0.01037592914103021</v>
+        <v>0.9327118536021044</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N19">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O19">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P19">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q19">
-        <v>4.790274328436667</v>
+        <v>2795.067224515926</v>
       </c>
       <c r="R19">
-        <v>28.74164597062</v>
+        <v>25155.60502064333</v>
       </c>
       <c r="S19">
-        <v>0.00296086411380954</v>
+        <v>0.09475724369220638</v>
       </c>
       <c r="T19">
-        <v>0.002224204230344674</v>
+        <v>0.1025708697771778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H20">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I20">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J20">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.0911085</v>
+        <v>41.484627</v>
       </c>
       <c r="N20">
-        <v>98.18221700000001</v>
+        <v>82.96925400000001</v>
       </c>
       <c r="O20">
-        <v>0.1999782101047527</v>
+        <v>0.1239670461082663</v>
       </c>
       <c r="P20">
-        <v>0.1476650982825601</v>
+        <v>0.08902362016592849</v>
       </c>
       <c r="Q20">
-        <v>31.91730419419967</v>
+        <v>73.40128111334701</v>
       </c>
       <c r="R20">
-        <v>191.503825165198</v>
+        <v>440.4076866800821</v>
       </c>
       <c r="S20">
-        <v>0.01972805608170462</v>
+        <v>0.002488420679392478</v>
       </c>
       <c r="T20">
-        <v>0.01481973643732945</v>
+        <v>0.001795742914641119</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,14 +1706,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H21">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I21">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J21">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.2022275203852691</v>
+        <v>0.1483472438656769</v>
       </c>
       <c r="P21">
-        <v>0.2239890035330867</v>
+        <v>0.159797411148604</v>
       </c>
       <c r="Q21">
-        <v>32.27630290917356</v>
+        <v>87.83687351770101</v>
       </c>
       <c r="R21">
-        <v>290.4867261825621</v>
+        <v>790.5318616593091</v>
       </c>
       <c r="S21">
-        <v>0.01994995285403766</v>
+        <v>0.002977810321009286</v>
       </c>
       <c r="T21">
-        <v>0.02247963828845019</v>
+        <v>0.003223358793017543</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H22">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I22">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J22">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.493336</v>
+        <v>65.346868</v>
       </c>
       <c r="N22">
-        <v>139.480008</v>
+        <v>196.040604</v>
       </c>
       <c r="O22">
-        <v>0.1893958885666406</v>
+        <v>0.195273738350999</v>
       </c>
       <c r="P22">
-        <v>0.209776573794135</v>
+        <v>0.210345922449721</v>
       </c>
       <c r="Q22">
-        <v>30.22832430266133</v>
+        <v>115.622199711348</v>
       </c>
       <c r="R22">
-        <v>272.054918723952</v>
+        <v>1040.599797402132</v>
       </c>
       <c r="S22">
-        <v>0.01868409917925436</v>
+        <v>0.003919777262664808</v>
       </c>
       <c r="T22">
-        <v>0.021053272374534</v>
+        <v>0.004242999769709456</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H23">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I23">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J23">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.4578325</v>
+        <v>30.4510415</v>
       </c>
       <c r="N23">
-        <v>44.915665</v>
+        <v>60.902083</v>
       </c>
       <c r="O23">
-        <v>0.09148453321607806</v>
+        <v>0.09099577213687446</v>
       </c>
       <c r="P23">
-        <v>0.06755272277719647</v>
+        <v>0.06534618118063169</v>
       </c>
       <c r="Q23">
-        <v>14.60128918141833</v>
+        <v>53.87888523948151</v>
       </c>
       <c r="R23">
-        <v>87.60773508851</v>
+        <v>323.2733114368891</v>
       </c>
       <c r="S23">
-        <v>0.009025043283215508</v>
+        <v>0.001826580274607231</v>
       </c>
       <c r="T23">
-        <v>0.00677962198803662</v>
+        <v>0.001318132666760332</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H24">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I24">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J24">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.287135</v>
+        <v>113.5526836666667</v>
       </c>
       <c r="N24">
-        <v>90.861405</v>
+        <v>340.658051</v>
       </c>
       <c r="O24">
-        <v>0.1233780868179216</v>
+        <v>0.3393254752374426</v>
       </c>
       <c r="P24">
-        <v>0.1366546683236589</v>
+        <v>0.3655162783395581</v>
       </c>
       <c r="Q24">
-        <v>19.69162503156334</v>
+        <v>200.915689925137</v>
       </c>
       <c r="R24">
-        <v>177.22462528407</v>
+        <v>1808.241209326233</v>
       </c>
       <c r="S24">
-        <v>0.01217137514493402</v>
+        <v>0.006811362826924919</v>
       </c>
       <c r="T24">
-        <v>0.013714724677947</v>
+        <v>0.007373023763702912</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6501646666666667</v>
+        <v>1.769361</v>
       </c>
       <c r="H25">
-        <v>1.950494</v>
+        <v>5.308083000000001</v>
       </c>
       <c r="I25">
-        <v>0.09865102838639603</v>
+        <v>0.02007324331354337</v>
       </c>
       <c r="J25">
-        <v>0.1003604549056784</v>
+        <v>0.02017153325481582</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.50960133333334</v>
+        <v>34.16388266666667</v>
       </c>
       <c r="N25">
-        <v>142.528804</v>
+        <v>102.491648</v>
       </c>
       <c r="O25">
-        <v>0.193535760909338</v>
+        <v>0.1020907243007408</v>
       </c>
       <c r="P25">
-        <v>0.2143619332893629</v>
+        <v>0.1099705867155567</v>
       </c>
       <c r="Q25">
-        <v>30.88906411435289</v>
+        <v>60.44824159897602</v>
       </c>
       <c r="R25">
-        <v>278.001577029176</v>
+        <v>544.0341743907842</v>
       </c>
       <c r="S25">
-        <v>0.01909250184324986</v>
+        <v>0.002049291948944644</v>
       </c>
       <c r="T25">
-        <v>0.02151346113938115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H26">
-        <v>8.686007</v>
-      </c>
-      <c r="I26">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J26">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>49.0911085</v>
-      </c>
-      <c r="N26">
-        <v>98.18221700000001</v>
-      </c>
-      <c r="O26">
-        <v>0.1999782101047527</v>
-      </c>
-      <c r="P26">
-        <v>0.1476650982825601</v>
-      </c>
-      <c r="Q26">
-        <v>142.1352373562532</v>
-      </c>
-      <c r="R26">
-        <v>852.8114241375191</v>
-      </c>
-      <c r="S26">
-        <v>0.08785365821278041</v>
-      </c>
-      <c r="T26">
-        <v>0.06599576027037182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H27">
-        <v>8.686007</v>
-      </c>
-      <c r="I27">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J27">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>49.64327433333333</v>
-      </c>
-      <c r="N27">
-        <v>148.929823</v>
-      </c>
-      <c r="O27">
-        <v>0.2022275203852691</v>
-      </c>
-      <c r="P27">
-        <v>0.2239890035330867</v>
-      </c>
-      <c r="Q27">
-        <v>143.7339427874179</v>
-      </c>
-      <c r="R27">
-        <v>1293.605485086761</v>
-      </c>
-      <c r="S27">
-        <v>0.08884181655510917</v>
-      </c>
-      <c r="T27">
-        <v>0.1001070987816145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H28">
-        <v>8.686007</v>
-      </c>
-      <c r="I28">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J28">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>46.493336</v>
-      </c>
-      <c r="N28">
-        <v>139.480008</v>
-      </c>
-      <c r="O28">
-        <v>0.1893958885666406</v>
-      </c>
-      <c r="P28">
-        <v>0.209776573794135</v>
-      </c>
-      <c r="Q28">
-        <v>134.6138139831173</v>
-      </c>
-      <c r="R28">
-        <v>1211.524325848056</v>
-      </c>
-      <c r="S28">
-        <v>0.08320467341078597</v>
-      </c>
-      <c r="T28">
-        <v>0.09375515701053627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H29">
-        <v>8.686007</v>
-      </c>
-      <c r="I29">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J29">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>22.4578325</v>
-      </c>
-      <c r="N29">
-        <v>44.915665</v>
-      </c>
-      <c r="O29">
-        <v>0.09148453321607806</v>
-      </c>
-      <c r="P29">
-        <v>0.06755272277719647</v>
-      </c>
-      <c r="Q29">
-        <v>65.02296343327582</v>
-      </c>
-      <c r="R29">
-        <v>390.137780599655</v>
-      </c>
-      <c r="S29">
-        <v>0.04019063331305447</v>
-      </c>
-      <c r="T29">
-        <v>0.03019124593330715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H30">
-        <v>8.686007</v>
-      </c>
-      <c r="I30">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J30">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>30.287135</v>
-      </c>
-      <c r="N30">
-        <v>90.861405</v>
-      </c>
-      <c r="O30">
-        <v>0.1233780868179216</v>
-      </c>
-      <c r="P30">
-        <v>0.1366546683236589</v>
-      </c>
-      <c r="Q30">
-        <v>87.69142220664834</v>
-      </c>
-      <c r="R30">
-        <v>789.222799859835</v>
-      </c>
-      <c r="S30">
-        <v>0.05420198662929641</v>
-      </c>
-      <c r="T30">
-        <v>0.06107488387850483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.895335666666667</v>
-      </c>
-      <c r="H31">
-        <v>8.686007</v>
-      </c>
-      <c r="I31">
-        <v>0.4393161543288185</v>
-      </c>
-      <c r="J31">
-        <v>0.4469286313282209</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>47.50960133333334</v>
-      </c>
-      <c r="N31">
-        <v>142.528804</v>
-      </c>
-      <c r="O31">
-        <v>0.193535760909338</v>
-      </c>
-      <c r="P31">
-        <v>0.2143619332893629</v>
-      </c>
-      <c r="Q31">
-        <v>137.5562432495142</v>
-      </c>
-      <c r="R31">
-        <v>1238.006189245628</v>
-      </c>
-      <c r="S31">
-        <v>0.08502338620779204</v>
-      </c>
-      <c r="T31">
-        <v>0.09580448545388634</v>
+        <v>0.002218275346984458</v>
       </c>
     </row>
   </sheetData>
